--- a/final-framework-testng/Signup_teacher.xlsx
+++ b/final-framework-testng/Signup_teacher.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2084F5E-1D4C-4295-B205-7BC57D59B9E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C8853-A855-4319-B631-3BC0AF262282}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Test12@123</t>
   </si>
   <si>
-    <t>TestSignupa9</t>
-  </si>
-  <si>
-    <t>TestSignupa10</t>
-  </si>
-  <si>
-    <t>TestSignupa11</t>
-  </si>
-  <si>
-    <t>TestSignupa12</t>
+    <t>TestSignupb9</t>
+  </si>
+  <si>
+    <t>TestSignupb10</t>
+  </si>
+  <si>
+    <t>TestSignupb11</t>
+  </si>
+  <si>
+    <t>TestSignupb12</t>
   </si>
 </sst>
 </file>
@@ -438,12 +438,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>

--- a/final-framework-testng/Signup_teacher.xlsx
+++ b/final-framework-testng/Signup_teacher.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C8853-A855-4319-B631-3BC0AF262282}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1D9DD-F4E1-4413-B620-34522597B1DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Test12@123</t>
   </si>
   <si>
-    <t>TestSignupb9</t>
-  </si>
-  <si>
-    <t>TestSignupb10</t>
-  </si>
-  <si>
-    <t>TestSignupb11</t>
-  </si>
-  <si>
-    <t>TestSignupb12</t>
+    <t>TestSignupc9</t>
+  </si>
+  <si>
+    <t>TestSignupc10</t>
+  </si>
+  <si>
+    <t>TestSignupc11</t>
+  </si>
+  <si>
+    <t>TestSignupc12</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
